--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_France/Liste_des_villes_et_villages_fleuris_de_France.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_France/Liste_des_villes_et_villages_fleuris_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste des communes participant au concours des villes et villages fleuris, qui ont une ou plusieurs fleurs aux résultats obtenus fin 2023[a].
-À la fin de cette même année 2023, 278 communes obtiennent le niveau maximal[1] — c'est-à-dire 4 fleurs — soit le même nombre de communes par rapport aux résultats de 2022.
-Avec 960 communes fleuries, et ce malgré une diminution de trente-une d'entre elles au palmarès 2023, la région Grand Est se classe première[2]. Elle est suivie par la région Auvergne-Rhône-Alpes avec ses 472 communes fleuries[2].
-Cependant, si la région Grand Est a le plus de communes labellisées 4 fleurs, à savoir 52 communes, c'est la Bretagne qui se classe deuxième avec 35 communes[2].
+À la fin de cette même année 2023, 278 communes obtiennent le niveau maximal — c'est-à-dire 4 fleurs — soit le même nombre de communes par rapport aux résultats de 2022.
+Avec 960 communes fleuries, et ce malgré une diminution de trente-une d'entre elles au palmarès 2023, la région Grand Est se classe première. Elle est suivie par la région Auvergne-Rhône-Alpes avec ses 472 communes fleuries.
+Cependant, si la région Grand Est a le plus de communes labellisées 4 fleurs, à savoir 52 communes, c'est la Bretagne qui se classe deuxième avec 35 communes.
 </t>
         </is>
       </c>
@@ -514,233 +526,1833 @@
           <t>France métropolitaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les hausses et les baisses, pour les régions et les catégories 4 fleurs, correspondent aux précédents résultats (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Auvergne-Rhône-Alpes
-472 communes sont labellisées dans la région Auvergne-Rhône-Alpes. 
-Répartition globale
-Les communes sont réparties comme suit :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hausses et les baisses, pour les régions et les catégories 4 fleurs, correspondent aux précédents résultats (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">472 communes sont labellisées dans la région Auvergne-Rhône-Alpes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 25 communes. 
 3 fleurs : 72 communes.
 2 fleurs : 170 communes.
 1 fleur : 205 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Ain
-Savoie
-Bourgogne-Franche-Comté
-337 communes sont labellisées dans la région Bourgogne-Franche-Comté. 
-Répartition globale
-Les communes sont réparties comme suit :
+Savoie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">337 communes sont labellisées dans la région Bourgogne-Franche-Comté. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 16 communes. 
 3 fleurs : 80 communes.
 2 fleurs : 114 communes.
 1 fleur : 127 communes.
 Liste des communes disponible ici.
-Bretagne
-242 communes sont labellisées dans la région Bretagne. 
-Répartition globale
-Les communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">242 communes sont labellisées dans la région Bretagne. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 35 communes. 
 3 fleurs : 84 communes.
 2 fleurs : 60 communes.
 1 fleur : 63 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Côtes-d'Armor
 Finistère
 Ille-et-Vilaine
-Morbihan
-Centre-Val de Loire
-318 communes sont labellisées dans la région Centre-Val de Loire. 
-Répartition globale
-Les communes sont réparties comme suit :
+Morbihan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">318 communes sont labellisées dans la région Centre-Val de Loire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 22 communes. 
 3 fleurs : 53 communes.
 2 fleurs : 110 communes.
 1 fleur : 133 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-La liste des villes et villages fleuris est détaillée pour le département suivant :
-Loiret
-Corse
-11 communes sont labellisées dans la région Corse. 
-Répartition globale
-Les communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La liste des villes et villages fleuris est détaillée pour le département suivant :
+Loiret</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 communes sont labellisées dans la région Corse. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 1 commune. 
 3 fleurs : 4 communes.
 2 fleurs : 4 communes.
 1 fleur : 2 communes.
 Liste des communes disponible ici.
-Grand Est
-960 communes sont labellisées dans la région Grand Est. 
-Répartition globale
-Les communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">960 communes sont labellisées dans la région Grand Est. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 52 communes. 
 3 fleurs : 268 communes.
 2 fleurs : 368 communes.
 1 fleur : 272 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Bas-Rhin
-Haut-Rhin
-Hauts-de-France
-339 communes sont labellisées dans la région Hauts-de-France. 
-Répartition globale
-Les communes sont réparties comme suit :
+Haut-Rhin</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">339 communes sont labellisées dans la région Hauts-de-France. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 32 communes. 
 3 fleurs : 92 communes.
 2 fleurs : 105 communes.
 1 fleur : 110 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Aisne
 Oise
-Somme
-Île-de-France
-335 communes sont labellisées dans la région Île-de-France. 
-Répartition globale
-Les communes sont réparties comme suit :
+Somme</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">335 communes sont labellisées dans la région Île-de-France. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 22 communes. 
 3 fleurs : 126 communes.
 2 fleurs : 103 communes.
 1 fleur : 84 communes.
 Liste des communes disponible ici.
-Normandie
-378 communes sont labellisées dans la région Normandie. 
-Répartition globale
-Les communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">378 communes sont labellisées dans la région Normandie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 15 communes. 
 3 fleurs : 116 communes.
 2 fleurs : 138 communes.
 1 fleur : 109 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Calvados
 Eure
 Manche
 Orne
-Seine-Maritime
-Nouvelle-Aquitaine
-331 communes sont labellisées dans la région Nouvelle-Aquitaine. 
-Répartition globale
-Les communes sont réparties comme suit :
+Seine-Maritime</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">331 communes sont labellisées dans la région Nouvelle-Aquitaine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 12 communes. 
 3 fleurs : 63 communes.
 2 fleurs : 134 communes.
 1 fleur : 122 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Charente
 Charente-Maritime
 Corrèze
 Creuse
 Deux-Sèvres
 Vienne
-Haute-Vienne
-Occitanie
-224 communes sont labellisées dans la région Occitanie. 
-Répartition globale
-Les communes sont réparties comme suit :
+Haute-Vienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">224 communes sont labellisées dans la région Occitanie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 12 communes. 
 3 fleurs : 46 communes.
 2 fleurs : 92 communes.
 1 fleur : 74 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Gard
-Gers
-Pays de la Loire
-319 communes sont labellisées dans la région Pays de la Loire. 
-Répartition globale
-Les communes sont réparties comme suit :
+Gers</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">319 communes sont labellisées dans la région Pays de la Loire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 25 communes. 
 3 fleurs : 93 communes.
 2 fleurs : 102 communes.
 1 fleur : 99 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Loire-Atlantique
 Maine-et-Loire
 Mayenne
 Sarthe
-Vendée
-Provence-Alpes-Côte d'Azur
-248 communes sont labellisées dans la région Provence-Alpes-Côte d'Azur. 
-Répartition globale
-Les communes sont réparties comme suit :
+Vendée</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">248 communes sont labellisées dans la région Provence-Alpes-Côte d'Azur. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : 9 communes. 
 3 fleurs : 89 communes.
 2 fleurs : 94 communes.
 1 fleur : 56 communes.
 Liste des communes disponible ici.
-Liste des villes et villages fleuris par département
-Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>France métropolitaine</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Liste des villes et villages fleuris par département</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Les listes des villes et villages fleuris sont détaillées pour les départements suivants :
 Alpes-de-Haute-Provence
 Hautes-Alpes</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Régions d'outre-mer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hausses et les baisses, pour les régions et les catégories 4 fleurs, correspondent aux précédents résultats (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Guadeloupe
-Aucune commune n'est labellisée en Guadeloupe.
-Guyane
-2 communes sont labellisées dans la région Guyane. 
-Répartition globale
-Les communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Guadeloupe</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune commune n'est labellisée en Guadeloupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Guyane</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 communes sont labellisées dans la région Guyane. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Guyane</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : aucune commune. 
 3 fleurs : aucune commune.
 2 fleurs : aucune commune.
 1 fleur : 2 communes.
 Liste des communes disponible ici.
-La Réunion
-Aucune commune n'est labellisée à La Réunion.
-Martinique
-13 communes sont labellisées dans la région Martinique. 
-Répartition globale
-Les communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>La Réunion</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune commune n'est labellisée à La Réunion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Martinique</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 communes sont labellisées dans la région Martinique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Martinique</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Répartition globale</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes sont réparties comme suit :
 4 fleurs : aucune commune. 
 3 fleurs : 3 communes.
 2 fleurs : 2 communes.
 1 fleur : 8 communes.
 Liste des communes disponible ici.
-Mayotte
-Aucune donnée pour Mayotte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_France</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Régions d'outre-mer</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Mayotte</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune donnée pour Mayotte.
 </t>
         </is>
       </c>
